--- a/datamining/final_data/sorted1981_nltk.xlsx
+++ b/datamining/final_data/sorted1981_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FY2"/>
+  <dimension ref="A1:FI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,897 +442,817 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>gifted</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>model</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>school</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>of</t>
+          <t>editorial</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>and</t>
+          <t>gifted-child</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>gifted</t>
+          <t>education</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>review</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>model</t>
+          <t>students</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>editorial</t>
+          <t>correction</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>giftedness</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>review</t>
+          <t>creative</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>talented</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>correction</t>
+          <t>gifted-children</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>students</t>
+          <t>book</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>giftedness</t>
+          <t>creative-thinking</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>intellectual</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>gifted-child</t>
+          <t>academically</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>creative</t>
+          <t>program</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>creative-thinking</t>
+          <t>parent</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>university</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>talented</t>
+          <t>language-development</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>academically</t>
+          <t>adolescents</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>gifted-children</t>
+          <t>aspects</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>intellectual</t>
+          <t>media</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>mirrors</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>adolescents</t>
+          <t>family</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>mirrors</t>
+          <t>creativity</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>media</t>
+          <t>teacher</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>university</t>
+          <t>professional</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>aspects</t>
+          <t>time</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>language-development</t>
+          <t>nature</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>creativity</t>
+          <t>bibliotherapy</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>professional</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>using</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>techniques</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>techniques</t>
+          <t>talent</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>sm</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>door</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
+          <t>identification</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>js</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>lh</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>reis</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>renzulli</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
           <t>smith</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>sm</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>renzulli</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>reis</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>lh</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>js</t>
-        </is>
-      </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>identification</t>
+          <t>revolving</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>revolving</t>
+          <t>inquiry</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>door</t>
+          <t>ideation</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>nature</t>
+          <t>peer</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>talent</t>
+          <t>culturally</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>culturally</t>
+          <t>diverse</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
+          <t>relationships</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
           <t>counseling</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>diverse</t>
-        </is>
-      </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
+          <t>tentative</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>connections</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
           <t>openness</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>connections</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>tentative</t>
-        </is>
-      </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>ideation</t>
+          <t>componential</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>inquiry</t>
+          <t>theory</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>relationships</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>peer</t>
+          <t>museum</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>componential</t>
+          <t>partnership</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>theory</t>
+          <t>stern</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>bibliotherapy</t>
+          <t>squared</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>with</t>
+          <t>math</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>using</t>
+          <t>child</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>recognizing</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>museum</t>
+          <t>leadership</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>partnership</t>
+          <t>educating</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>conceptual-framework</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>parent</t>
+          <t>artist</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>are</t>
+          <t>artistically</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>leadership</t>
+          <t>entry</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>recognizing</t>
+          <t>age</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>conceptual-framework</t>
+          <t>group</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>educating</t>
+          <t>use</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>entry</t>
+          <t>guidance</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>differential</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>dgg</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>artist</t>
+          <t>teaching</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>artistically</t>
+          <t>individualized</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>stern</t>
+          <t>varsity</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>squared</t>
+          <t>non-psychomotor</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
+          <t>adapting</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>resources</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>guest</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
           <t>educational</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
-        <is>
-          <t>math</t>
-        </is>
-      </c>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>resources</t>
-        </is>
-      </c>
-      <c r="CJ1" s="1" t="inlineStr">
-        <is>
-          <t>guest</t>
-        </is>
-      </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>sports</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>superior</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
+          <t>achievements</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
           <t>zeal</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>essential</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>case-study</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>moral</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>modern</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>reasoning</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>secondary-school</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>reasoning</t>
-        </is>
-      </c>
-      <c r="CP1" s="1" t="inlineStr">
-        <is>
-          <t>superior</t>
-        </is>
-      </c>
-      <c r="CQ1" s="1" t="inlineStr">
-        <is>
-          <t>essential</t>
-        </is>
-      </c>
-      <c r="CR1" s="1" t="inlineStr">
-        <is>
-          <t>achievements</t>
-        </is>
-      </c>
-      <c r="CS1" s="1" t="inlineStr">
-        <is>
-          <t>guidance</t>
-        </is>
-      </c>
-      <c r="CT1" s="1" t="inlineStr">
-        <is>
-          <t>differential</t>
-        </is>
-      </c>
-      <c r="CU1" s="1" t="inlineStr">
-        <is>
-          <t>dgg</t>
-        </is>
-      </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>moral</t>
+          <t>architectures</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>varsity</t>
+          <t>level</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>adapting</t>
+          <t>student</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>sports</t>
+          <t>visual-arts</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>non-psychomotor</t>
+          <t>processes</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
+          <t>think</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>scientists</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>otherwise</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
           <t>late</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
-        <is>
-          <t>student</t>
-        </is>
-      </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>elementary</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>blooming</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="DE1" s="1" t="inlineStr">
-        <is>
-          <t>level</t>
-        </is>
-      </c>
-      <c r="DF1" s="1" t="inlineStr">
-        <is>
-          <t>otherwise</t>
-        </is>
-      </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
-          <t>scientists</t>
+          <t>early</t>
         </is>
       </c>
       <c r="DH1" s="1" t="inlineStr">
         <is>
-          <t>elementary</t>
+          <t>art</t>
         </is>
       </c>
       <c r="DI1" s="1" t="inlineStr">
         <is>
-          <t>art</t>
+          <t>piece</t>
         </is>
       </c>
       <c r="DJ1" s="1" t="inlineStr">
         <is>
-          <t>an</t>
+          <t>lifetime</t>
         </is>
       </c>
       <c r="DK1" s="1" t="inlineStr">
         <is>
-          <t>early</t>
+          <t>facilitating</t>
         </is>
       </c>
       <c r="DL1" s="1" t="inlineStr">
         <is>
-          <t>processes</t>
+          <t>attitudes</t>
         </is>
       </c>
       <c r="DM1" s="1" t="inlineStr">
         <is>
-          <t>teaching</t>
+          <t>creatively</t>
         </is>
       </c>
       <c r="DN1" s="1" t="inlineStr">
         <is>
-          <t>think</t>
+          <t>improving</t>
         </is>
       </c>
       <c r="DO1" s="1" t="inlineStr">
         <is>
-          <t>visual-arts</t>
+          <t>toward</t>
         </is>
       </c>
       <c r="DP1" s="1" t="inlineStr">
         <is>
-          <t>piece</t>
+          <t>cerebral</t>
         </is>
       </c>
       <c r="DQ1" s="1" t="inlineStr">
         <is>
-          <t>lifetime</t>
+          <t>handedness</t>
         </is>
       </c>
       <c r="DR1" s="1" t="inlineStr">
         <is>
-          <t>case-study</t>
+          <t>hemispheric</t>
         </is>
       </c>
       <c r="DS1" s="1" t="inlineStr">
         <is>
-          <t>debt</t>
+          <t>intelligence</t>
         </is>
       </c>
       <c r="DT1" s="1" t="inlineStr">
         <is>
-          <t>facilitating</t>
+          <t>preference</t>
         </is>
       </c>
       <c r="DU1" s="1" t="inlineStr">
         <is>
-          <t>individualized</t>
+          <t>characteristics</t>
         </is>
       </c>
       <c r="DV1" s="1" t="inlineStr">
         <is>
-          <t>modern</t>
+          <t>children</t>
         </is>
       </c>
       <c r="DW1" s="1" t="inlineStr">
         <is>
-          <t>architectures</t>
+          <t>highly</t>
         </is>
       </c>
       <c r="DX1" s="1" t="inlineStr">
         <is>
-          <t>cerebral</t>
+          <t>adjustment</t>
         </is>
       </c>
       <c r="DY1" s="1" t="inlineStr">
         <is>
-          <t>handedness</t>
+          <t>environmental-conditions</t>
         </is>
       </c>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
-          <t>hemispheric</t>
+          <t>myths</t>
         </is>
       </c>
       <c r="EA1" s="1" t="inlineStr">
         <is>
-          <t>intelligence</t>
+          <t>eminent</t>
         </is>
       </c>
       <c r="EB1" s="1" t="inlineStr">
         <is>
-          <t>preference</t>
+          <t>traits</t>
         </is>
       </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
-          <t>toward</t>
+          <t>childhood</t>
         </is>
       </c>
       <c r="ED1" s="1" t="inlineStr">
         <is>
-          <t>improving</t>
+          <t>adults</t>
         </is>
       </c>
       <c r="EE1" s="1" t="inlineStr">
         <is>
-          <t>creatively</t>
+          <t>suicides</t>
         </is>
       </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>characteristics</t>
+          <t>over-representation</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
-          <t>attitudes</t>
+          <t>dropouts</t>
         </is>
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>environmental-conditions</t>
+          <t>delinquents</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
-          <t>adults</t>
+          <t>among</t>
         </is>
       </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
-          <t>childhood</t>
+          <t>young</t>
         </is>
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
-          <t>highly</t>
+          <t>social</t>
         </is>
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
-          <t>traits</t>
+          <t>intellectually-gifted</t>
         </is>
       </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
-          <t>eminent</t>
+          <t>emotional</t>
         </is>
       </c>
       <c r="EN1" s="1" t="inlineStr">
         <is>
-          <t>intellectually-gifted</t>
+          <t>elementary-school-children</t>
         </is>
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>adjustment</t>
+          <t>1958-80</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>children</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>young</t>
+          <t>predicting</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
-          <t>social</t>
+          <t>made</t>
         </is>
       </c>
       <c r="ES1" s="1" t="inlineStr">
         <is>
-          <t>emotional</t>
+          <t>community</t>
         </is>
       </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
-          <t>suicides</t>
+          <t>resource</t>
         </is>
       </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
-          <t>over-representation</t>
+          <t>youth</t>
         </is>
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
-          <t>myths</t>
+          <t>recent</t>
         </is>
       </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
-          <t>dropouts</t>
+          <t>curriculum</t>
         </is>
       </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
-          <t>delinquents</t>
+          <t>programs</t>
         </is>
       </c>
       <c r="EY1" s="1" t="inlineStr">
         <is>
-          <t>among</t>
+          <t>pre-calculus</t>
         </is>
       </c>
       <c r="EZ1" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>mathematics</t>
         </is>
       </c>
       <c r="FA1" s="1" t="inlineStr">
         <is>
-          <t>who</t>
+          <t>communication-skills</t>
         </is>
       </c>
       <c r="FB1" s="1" t="inlineStr">
         <is>
-          <t>made</t>
+          <t>human-relations</t>
         </is>
       </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
-          <t>1958-80</t>
+          <t>grade</t>
         </is>
       </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>inter-personal</t>
         </is>
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
-          <t>predicting</t>
+          <t>k-12</t>
         </is>
       </c>
       <c r="FF1" s="1" t="inlineStr">
         <is>
-          <t>elementary-school-children</t>
+          <t>rationale</t>
         </is>
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
-          <t>youth</t>
+          <t>junior-high</t>
         </is>
       </c>
       <c r="FH1" s="1" t="inlineStr">
         <is>
-          <t>as</t>
+          <t>fast-paced</t>
         </is>
       </c>
       <c r="FI1" s="1" t="inlineStr">
         <is>
-          <t>community</t>
-        </is>
-      </c>
-      <c r="FJ1" s="1" t="inlineStr">
-        <is>
-          <t>resource</t>
-        </is>
-      </c>
-      <c r="FK1" s="1" t="inlineStr">
-        <is>
-          <t>pre-calculus</t>
-        </is>
-      </c>
-      <c r="FL1" s="1" t="inlineStr">
-        <is>
-          <t>programs</t>
-        </is>
-      </c>
-      <c r="FM1" s="1" t="inlineStr">
-        <is>
-          <t>recent</t>
-        </is>
-      </c>
-      <c r="FN1" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="FO1" s="1" t="inlineStr">
-        <is>
-          <t>fast-paced</t>
-        </is>
-      </c>
-      <c r="FP1" s="1" t="inlineStr">
-        <is>
-          <t>junior-high</t>
-        </is>
-      </c>
-      <c r="FQ1" s="1" t="inlineStr">
-        <is>
-          <t>mathematics</t>
-        </is>
-      </c>
-      <c r="FR1" s="1" t="inlineStr">
-        <is>
           <t>smpy</t>
-        </is>
-      </c>
-      <c r="FS1" s="1" t="inlineStr">
-        <is>
-          <t>k-12</t>
-        </is>
-      </c>
-      <c r="FT1" s="1" t="inlineStr">
-        <is>
-          <t>human-relations</t>
-        </is>
-      </c>
-      <c r="FU1" s="1" t="inlineStr">
-        <is>
-          <t>inter-personal</t>
-        </is>
-      </c>
-      <c r="FV1" s="1" t="inlineStr">
-        <is>
-          <t>rationale</t>
-        </is>
-      </c>
-      <c r="FW1" s="1" t="inlineStr">
-        <is>
-          <t>grade</t>
-        </is>
-      </c>
-      <c r="FX1" s="1" t="inlineStr">
-        <is>
-          <t>communication-skills</t>
-        </is>
-      </c>
-      <c r="FY1" s="1" t="inlineStr">
-        <is>
-          <t>curriculum</t>
         </is>
       </c>
     </row>
@@ -1344,118 +1264,118 @@
         <v>1981</v>
       </c>
       <c r="C2" t="n">
-        <v>2.68</v>
+        <v>1.99</v>
       </c>
       <c r="D2" t="n">
-        <v>2.02</v>
+        <v>1.23</v>
       </c>
       <c r="E2" t="n">
-        <v>1.95</v>
+        <v>1.2</v>
       </c>
       <c r="F2" t="n">
-        <v>1.9</v>
+        <v>1.18</v>
       </c>
       <c r="G2" t="n">
-        <v>1.88</v>
+        <v>1.17</v>
       </c>
       <c r="H2" t="n">
-        <v>1.84</v>
+        <v>1.13</v>
       </c>
       <c r="I2" t="n">
-        <v>1.6</v>
+        <v>1.13</v>
       </c>
       <c r="J2" t="n">
-        <v>1.17</v>
+        <v>1.03</v>
       </c>
       <c r="K2" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.12</v>
+        <v>0.95</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>1.07</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="P2" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9199999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9199999999999999</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="T2" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="U2" t="n">
-        <v>0.86</v>
+        <v>0.77</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8400000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8300000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="X2" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.68</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.64</v>
+        <v>0.61</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="AL2" t="n">
         <v>0.61</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="AO2" t="n">
         <v>0.6</v>
@@ -1479,16 +1399,16 @@
         <v>0.6</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.59</v>
+        <v>0.57</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.59</v>
+        <v>0.57</v>
       </c>
       <c r="AZ2" t="n">
         <v>0.57</v>
@@ -1500,13 +1420,13 @@
         <v>0.57</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="BF2" t="n">
         <v>0.55</v>
@@ -1515,127 +1435,127 @@
         <v>0.55</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="BJ2" t="n">
         <v>0.54</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="BR2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BU2" t="n">
         <v>0.49</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="BV2" t="n">
         <v>0.49</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="BW2" t="n">
         <v>0.49</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>0.48</v>
       </c>
       <c r="BX2" t="n">
         <v>0.48</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="CB2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="CE2" t="n">
         <v>0.46</v>
       </c>
-      <c r="CC2" t="n">
+      <c r="CF2" t="n">
         <v>0.46</v>
       </c>
-      <c r="CD2" t="n">
+      <c r="CG2" t="n">
         <v>0.46</v>
       </c>
-      <c r="CE2" t="n">
+      <c r="CH2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="CP2" t="n">
         <v>0.45</v>
       </c>
-      <c r="CF2" t="n">
+      <c r="CQ2" t="n">
         <v>0.45</v>
       </c>
-      <c r="CG2" t="n">
+      <c r="CR2" t="n">
         <v>0.45</v>
       </c>
-      <c r="CH2" t="n">
+      <c r="CS2" t="n">
         <v>0.45</v>
       </c>
-      <c r="CI2" t="n">
+      <c r="CT2" t="n">
         <v>0.45</v>
       </c>
-      <c r="CJ2" t="n">
+      <c r="CU2" t="n">
         <v>0.45</v>
       </c>
-      <c r="CK2" t="n">
+      <c r="CV2" t="n">
         <v>0.45</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>0.44</v>
       </c>
       <c r="CW2" t="n">
         <v>0.43</v>
@@ -1650,37 +1570,37 @@
         <v>0.43</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="DL2" t="n">
         <v>0.42</v>
@@ -1713,10 +1633,10 @@
         <v>0.42</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="DX2" t="n">
         <v>0.41</v>
@@ -1749,22 +1669,22 @@
         <v>0.41</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="EN2" t="n">
         <v>0.4</v>
@@ -1782,28 +1702,28 @@
         <v>0.4</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="FA2" t="n">
         <v>0.36</v>
@@ -1824,61 +1744,13 @@
         <v>0.36</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
     </row>
   </sheetData>
